--- a/March'21/20.03.2021/Daily Sales Info..xlsx
+++ b/March'21/20.03.2021/Daily Sales Info..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="792" firstSheet="3" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="792" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1244,7 +1244,255 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1394">
+  <dxfs count="1418">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15056,188 +15304,188 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E28:K29 E4:H4 E6:H6">
-    <cfRule type="cellIs" dxfId="1393" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1417" priority="44" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E28:K29 E4 E6">
-    <cfRule type="cellIs" dxfId="1392" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1416" priority="42" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1391" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1415" priority="43" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F28:F29 F4 F6">
-    <cfRule type="cellIs" dxfId="1390" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1414" priority="40" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1389" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1413" priority="41" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29 G4 G6">
-    <cfRule type="cellIs" dxfId="1388" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1412" priority="38" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1387" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1411" priority="39" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29 H4 H6">
-    <cfRule type="cellIs" dxfId="1386" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1410" priority="36" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1385" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1409" priority="37" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1384" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1408" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1383" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1382" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1381" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1407" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1406" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1405" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E4 E6">
-    <cfRule type="cellIs" dxfId="1380" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1404" priority="31" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D4:K4 M4 D6">
-    <cfRule type="cellIs" dxfId="1379" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1403" priority="30" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29 I4 I6">
-    <cfRule type="cellIs" dxfId="1378" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1402" priority="29" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J4 J6">
-    <cfRule type="cellIs" dxfId="1377" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1401" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29 K4 K6">
-    <cfRule type="cellIs" dxfId="1376" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1400" priority="27" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1375" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1399" priority="26" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1374" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1373" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1372" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1398" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1397" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1396" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1371" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1395" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1370" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1369" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1368" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1394" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1393" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1392" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1367" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1366" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1365" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1391" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1390" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1389" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1364" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1388" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1363" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1387" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1362" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1386" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1361" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1385" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1360" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1384" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1359" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1383" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1358" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1382" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1357" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1381" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1356" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1380" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1355" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1379" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1354" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1378" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1353" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1377" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:L5">
-    <cfRule type="cellIs" dxfId="1352" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1376" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16750,193 +16998,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1007" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1031" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1006" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1030" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1005" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1004" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1028" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1027" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1002" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1026" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1001" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1025" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1000" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1024" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="999" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1023" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="998" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1022" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="997" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="996" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="995" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1021" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1020" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1019" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="994" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="993" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="992" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="991" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1015" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="990" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="989" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1013" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="988" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="987" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="986" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1012" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1011" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1010" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="985" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1009" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="984" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1008" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="983" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="982" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="981" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1007" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1006" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1005" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="980" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="978" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1004" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1003" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1002" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="977" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1001" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="976" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="975" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="999" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="974" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="998" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="973" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="997" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="972" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="996" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="971" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="995" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="970" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="994" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="969" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="993" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="968" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="992" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="967" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="991" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="966" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="990" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="965" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="989" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18456,193 +18704,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="964" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="963" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="961" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="960" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="959" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="957" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="981" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="955" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="979" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="954" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="953" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="978" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="977" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="976" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="951" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="975" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="950" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="949" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="973" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="948" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="947" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="946" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="945" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="969" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="968" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="967" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="942" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="966" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="941" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="965" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="940" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="939" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="938" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="964" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="963" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="962" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="937" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="935" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="961" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="960" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="959" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="934" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="958" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="933" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="932" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="956" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="931" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="955" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="930" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="954" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="929" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="953" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="928" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="952" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="927" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="951" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="926" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="950" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="925" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="949" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="924" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="948" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="923" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="947" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="922" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="946" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20006,193 +20254,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="921" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="920" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="918" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="917" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="916" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="939" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="914" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="938" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="937" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="912" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="936" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="911" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="935" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="934" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="933" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="908" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="907" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="906" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="905" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="904" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="928" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="903" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="902" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="926" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="925" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="924" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="899" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="923" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="898" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="922" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="897" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="896" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="921" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="920" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="919" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="894" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="918" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="917" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="916" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="891" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="915" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="890" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="889" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="913" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="888" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="912" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="887" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="911" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="886" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="910" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="885" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="909" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="884" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="908" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="883" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="907" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="882" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="906" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="881" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="905" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="880" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="904" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="879" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="903" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21696,193 +21944,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="878" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="877" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="875" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="899" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="873" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="871" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="895" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="869" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="893" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="868" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="892" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="891" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="890" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="865" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="864" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="863" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="862" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="861" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="860" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="859" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="857" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="883" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="882" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="881" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="856" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="880" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="855" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="879" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="854" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="878" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="877" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="876" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="851" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="875" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="874" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="873" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="848" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="872" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="847" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="846" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="870" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="845" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="869" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="844" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="868" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="843" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="867" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="842" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="866" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="841" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="865" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="840" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="864" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="839" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="863" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="838" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="862" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="837" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="861" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="836" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="860" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23559,193 +23807,193 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="835" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="834" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="832" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="830" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="828" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T27">
-    <cfRule type="cellIs" dxfId="826" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="850" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="825" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="849" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="848" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="847" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="822" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="821" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="820" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="819" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="818" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="817" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="816" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="840" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="839" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="838" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="813" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="837" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T27">
-    <cfRule type="cellIs" dxfId="812" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="836" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="811" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="835" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="834" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="833" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="808" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="832" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="831" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="830" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="805" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="829" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="804" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="803" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="827" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="802" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="826" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="801" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="825" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="800" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="824" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="799" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="823" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="798" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="822" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="797" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="821" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="796" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="820" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="795" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="819" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="794" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="818" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="793" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="817" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25423,267 +25671,267 @@
     <mergeCell ref="M29:V29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="792" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="61" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="791" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="59" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="60" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="789" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="57" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="58" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="787" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="55" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="56" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="785" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="53" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="54" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="783" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="807" priority="52" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="782" priority="49" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="50" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="806" priority="49" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="805" priority="50" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="804" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="779" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="48" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="778" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="47" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="777" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="46" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="776" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="45" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="775" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="44" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="774" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="43" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="773" priority="40" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="41" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="797" priority="40" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="796" priority="41" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="795" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="770" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="794" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U6:V6">
-    <cfRule type="cellIs" dxfId="769" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="793" priority="38" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="768" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="36" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="792" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="791" priority="36" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="790" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="765" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="789" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="788" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="787" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="762" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="786" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="761" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="30" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="760" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="784" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="759" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="783" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="758" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="782" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="757" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="781" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="756" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="780" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="755" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="779" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="754" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="778" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="753" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="777" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="752" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="776" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="751" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="775" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="750" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="774" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="749" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="773" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="cellIs" dxfId="748" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="772" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="747" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="771" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="746" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="770" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="769" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="768" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="743" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="767" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="742" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="10" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="766" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="765" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="764" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="cellIs" dxfId="739" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="763" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="cellIs" dxfId="738" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="762" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="761" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="760" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="cellIs" dxfId="735" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="759" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="cellIs" dxfId="734" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="758" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="757" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="756" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27184,193 +27432,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="731" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="730" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="728" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="726" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="724" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="722" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="746" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="721" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="745" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="744" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="743" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="718" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="717" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="716" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="715" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="714" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="713" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="712" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="736" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="735" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="734" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="709" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="733" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="708" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="732" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="707" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="731" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="730" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="729" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="704" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="728" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="727" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="726" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="701" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="725" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="700" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="699" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="723" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="698" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="722" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="697" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="721" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="696" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="720" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="695" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="719" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="694" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="718" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="693" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="717" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="692" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="716" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="691" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="715" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="690" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="714" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="689" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="713" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28827,193 +29075,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="688" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="687" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="685" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="683" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="681" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28">
-    <cfRule type="cellIs" dxfId="679" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="703" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="678" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="702" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="701" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="700" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="675" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="674" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="673" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="672" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="671" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="670" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28">
-    <cfRule type="cellIs" dxfId="669" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="693" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="692" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="666" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="690" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28">
-    <cfRule type="cellIs" dxfId="665" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="689" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="664" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="688" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="687" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="686" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28">
-    <cfRule type="cellIs" dxfId="661" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="685" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="684" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="683" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="658" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="682" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="657" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="656" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="680" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="655" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="679" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="654" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="678" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="653" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="677" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="652" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="676" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="651" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="675" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="650" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="674" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="649" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="673" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="648" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="672" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="647" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="671" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="646" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="670" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29026,8 +29274,8 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30633,203 +30881,203 @@
     <mergeCell ref="M29:U29"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="645" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="45" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="644" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="43" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="44" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="642" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="41" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="42" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="640" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="39" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="40" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="638" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="37" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="38" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28">
-    <cfRule type="cellIs" dxfId="636" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="660" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="635" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="34" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="659" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="658" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="657" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="632" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="32" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="631" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="31" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="630" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="30" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="629" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="29" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="628" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="28" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="627" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="27" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28">
-    <cfRule type="cellIs" dxfId="626" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="25" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="650" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="649" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="648" priority="26" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="623" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="647" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28 U28">
-    <cfRule type="cellIs" dxfId="622" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="646" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="621" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="20" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="645" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="644" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="643" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28 U28">
-    <cfRule type="cellIs" dxfId="618" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="642" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="641" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="640" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="615" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="639" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="614" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="14" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="613" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="637" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="612" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="636" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="611" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="635" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="610" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="634" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="609" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="633" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="608" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="632" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="607" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="631" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="606" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="630" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="605" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="629" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="604" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="628" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="603" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="627" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="602" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="626" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6">
-    <cfRule type="cellIs" dxfId="601" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="625" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32193,193 +32441,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="600" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="599" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="597" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="595" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="593" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="591" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="615" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="590" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="614" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="612" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="587" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="586" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="585" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="584" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="583" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="582" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="581" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="605" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="604" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="578" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="602" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="577" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="601" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="576" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="600" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="599" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="573" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="597" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="596" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="595" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="570" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="594" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="569" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="568" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="592" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="567" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="591" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="566" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="590" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="565" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="589" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="564" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="588" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="563" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="587" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="562" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="586" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="561" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="585" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="560" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="584" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="559" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="583" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="558" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="582" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33936,193 +34184,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1351" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1375" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1350" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1374" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1349" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1373" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1348" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1372" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1347" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1371" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1346" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1370" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1345" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1369" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1344" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1368" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1343" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1367" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1342" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1366" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1341" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1340" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1339" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1365" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1364" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1363" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1338" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1362" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1337" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1361" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1336" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1360" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1335" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1359" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1334" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1358" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1333" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1357" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1332" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1331" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1330" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1356" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1355" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1354" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1329" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1353" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1328" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1352" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1327" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1326" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1325" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1351" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1350" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1349" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1324" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1323" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1322" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1348" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1347" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1346" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1321" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1345" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1320" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1344" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1319" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1343" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1318" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1342" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1317" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1341" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1316" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1340" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1315" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1339" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1314" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1338" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1313" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1337" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1312" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1336" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1311" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1335" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1310" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1334" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1309" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1333" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34137,8 +34385,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34308,7 +34556,7 @@
       <c r="S5" s="94"/>
       <c r="T5" s="94"/>
     </row>
-    <row r="6" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -34333,16 +34581,16 @@
       <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="15" t="s">
@@ -35646,194 +35894,246 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="557" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="55" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="556" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="53" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="54" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="554" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="51" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="52" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="552" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="49" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="50" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="550" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="47" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="48" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="548" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="572" priority="46" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="547" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="571" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="570" priority="44" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="569" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="544" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="42" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="543" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="41" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="542" priority="28" operator="equal">
+  <conditionalFormatting sqref="I4:I5 I28:I29">
+    <cfRule type="cellIs" dxfId="566" priority="40" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="541" priority="27" operator="equal">
+  <conditionalFormatting sqref="J4:J5 J28:J29">
+    <cfRule type="cellIs" dxfId="565" priority="39" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="540" priority="26" operator="equal">
+  <conditionalFormatting sqref="K4:K5 K28:K29">
+    <cfRule type="cellIs" dxfId="564" priority="38" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="539" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="37" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="538" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="562" priority="34" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="560" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="535" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="559" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="534" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="558" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="533" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="557" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="30" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="555" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="530" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="554" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="552" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="527" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="526" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4 L28:L29">
+    <cfRule type="cellIs" dxfId="550" priority="24" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="525" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="549" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="524" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="548" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="523" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="547" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="522" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="546" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="521" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="545" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="520" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="544" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="519" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="543" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="518" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="542" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="517" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="541" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="516" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="540" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="515" priority="1" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="539" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>212030016606640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+      <formula>$H$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+      <formula>6640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>212030016606640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>$H$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>6640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>212030016606640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>$H$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>6640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>212030016606640</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>$H$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37196,193 +37496,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="514" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="513" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="511" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="509" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="507" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="505" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="529" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="504" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="528" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="527" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="501" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="500" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="499" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="498" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="497" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="496" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="495" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="519" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="518" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="492" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="516" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="491" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="515" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="490" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="514" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="512" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="487" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="511" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="510" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="484" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="508" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="483" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="482" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="506" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="481" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="505" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="480" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="504" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="479" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="503" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="478" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="502" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="477" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="501" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="476" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="500" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="475" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="499" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="474" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="498" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="473" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="497" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="472" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="496" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38746,193 +39046,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="471" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="470" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="468" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="466" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="464" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="462" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="486" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="461" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="485" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="458" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="457" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="456" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="455" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="454" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="453" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="452" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="476" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="449" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="473" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="448" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="472" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="447" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="471" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="444" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="468" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="467" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="441" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="465" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="440" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="439" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="463" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="438" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="462" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="437" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="461" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="436" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="460" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="435" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="459" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="434" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="458" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="433" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="457" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="432" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="456" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="431" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="455" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="430" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="454" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="429" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="453" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40296,193 +40596,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="428" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="427" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="425" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="423" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="421" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="419" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="443" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="418" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="442" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="441" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="440" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="415" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="414" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="413" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="412" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="411" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="410" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="409" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="433" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="406" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="430" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="405" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="429" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="404" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="428" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="427" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="401" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="425" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="424" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="423" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="398" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="422" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="397" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="396" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="420" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="395" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="419" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="394" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="418" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="393" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="417" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="392" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="416" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="391" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="415" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="390" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="414" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="389" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="413" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="388" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="412" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="387" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="411" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="386" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="410" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41846,193 +42146,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="385" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="384" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="382" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="380" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="378" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="376" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="400" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="375" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="399" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="372" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="371" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="370" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="369" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="368" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="367" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="366" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="390" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="389" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="363" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="387" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="362" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="386" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="361" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="385" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="383" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="358" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="382" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="380" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="355" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="379" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="354" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="353" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="377" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="352" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="376" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="351" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="375" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="350" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="374" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="349" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="373" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="348" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="372" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="347" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="371" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="346" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="370" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="345" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="369" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="344" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="368" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="343" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="367" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43396,193 +43696,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="342" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="341" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="339" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="337" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="335" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="333" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="357" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="332" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="356" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="329" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="328" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="327" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="326" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="325" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="324" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="323" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="347" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="320" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="344" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="319" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="343" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="318" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="342" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="315" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="339" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="312" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="336" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="311" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="310" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="334" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="309" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="333" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="308" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="332" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="307" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="331" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="306" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="330" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="305" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="329" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="304" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="328" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="303" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="327" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="302" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="326" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="301" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="325" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="300" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="324" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44946,193 +45246,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="299" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="298" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="296" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="294" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="292" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="290" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="289" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="286" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="285" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="284" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="283" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="282" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="281" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="280" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="277" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="301" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="276" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="275" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="272" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="269" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="293" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="268" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="267" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="266" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="290" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="265" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="289" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="264" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="288" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="263" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="287" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="262" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="261" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="285" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="260" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="284" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="259" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="283" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="258" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="282" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="257" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46496,193 +46796,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="256" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="255" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="253" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="251" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="249" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="247" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="246" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="243" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="242" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="241" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="240" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="239" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="238" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="237" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="234" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="233" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="232" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="229" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="226" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="225" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="224" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="223" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="222" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="221" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="220" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="219" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="243" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="218" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="242" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="217" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="216" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="215" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="239" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="214" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48046,193 +48346,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="213" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="212" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="210" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="208" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="206" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="204" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="203" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="200" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="199" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="198" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="197" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="196" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="195" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="194" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="191" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="190" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="189" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="186" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="183" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="182" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="181" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="180" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="179" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="178" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="202" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="177" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="175" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="174" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="173" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="172" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="196" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="171" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49596,193 +49896,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="170" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="169" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="167" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="165" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="163" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="161" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="160" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="157" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="156" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="155" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="154" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="153" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="152" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="151" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="148" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="147" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="146" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="143" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="140" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="139" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="138" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="137" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="136" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="135" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="133" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="132" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="130" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="128" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51318,193 +51618,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1308" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1332" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1307" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1331" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1306" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1330" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1305" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1329" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1304" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1328" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1303" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1327" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1302" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1326" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1301" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1325" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1300" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1324" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1299" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1323" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1298" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1297" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1296" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1322" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1321" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1320" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1295" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1319" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1294" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1318" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1293" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1317" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1292" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1316" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1291" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1315" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1290" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1314" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1289" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1288" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1287" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1313" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1312" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1311" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1286" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1310" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1285" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1309" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1284" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1283" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1282" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1308" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1307" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1306" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1281" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1280" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1279" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1305" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1304" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1303" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1278" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1302" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1277" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1301" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1276" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1300" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1275" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1299" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1274" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1298" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1273" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1297" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1272" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1296" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1271" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1295" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1270" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1294" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1269" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1293" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1268" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1292" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1267" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1291" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1266" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1290" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52868,193 +53168,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="127" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="126" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="124" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="122" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="120" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="118" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="117" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="114" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="113" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="112" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="111" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="110" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="109" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="105" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="104" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="103" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="100" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="97" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="95" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="94" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="92" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="89" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54418,193 +54718,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="84" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="81" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="79" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="77" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="75" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="74" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="71" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="70" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="68" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="66" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="65" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="62" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="61" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="60" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="57" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -56625,188 +56925,188 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E28:K29 E4:H4 E6:H6">
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="44" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E28:K29 E4 E6">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="43" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F28:F29 F4 F6">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="40" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="41" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29 G4 G6">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="38" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="39" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H29 H4 H6">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="37" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E4 E6">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="31" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29 I4 I6">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29 J4 J6">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29 K4 K6">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="27" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="26" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7 D8:L27 Q8:Q27">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:L5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58331,193 +58631,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1265" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1289" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1264" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1288" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1263" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1287" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1262" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1286" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1261" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1285" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1260" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1284" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1259" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1283" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1258" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1282" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1257" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1281" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1256" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1280" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1255" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1254" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1253" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1279" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1278" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1277" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1252" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1276" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1251" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1250" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1274" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1249" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1273" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1248" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1272" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1247" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1271" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1246" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1245" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1244" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1270" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1269" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1268" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1243" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1267" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1242" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1266" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1241" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1240" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1239" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1265" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1264" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1263" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1238" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1237" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1236" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1262" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1261" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1260" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1235" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1259" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1234" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1258" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1233" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1257" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1232" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1256" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1231" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1255" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1230" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1254" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1229" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1253" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1228" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1252" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1227" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1251" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1226" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1250" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1225" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1249" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1224" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1248" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1223" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1247" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59884,193 +60184,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1222" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1246" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1221" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1245" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1220" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1244" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1219" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1243" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1218" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1242" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1217" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1241" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1216" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1240" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1215" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1239" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1214" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1238" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1213" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1237" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1212" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1211" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1210" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1236" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1235" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1234" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1209" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1233" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1208" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1232" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1207" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1231" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1206" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1230" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1205" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1229" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1204" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1228" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1203" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1202" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1201" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1227" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1226" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1225" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1200" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1224" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1199" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1223" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1198" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1197" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1196" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1222" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1221" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1220" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1195" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1194" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1193" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1219" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1218" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1217" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1192" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1216" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1191" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1215" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1190" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1214" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1189" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1213" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1188" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1212" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1187" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1211" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1186" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1210" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1185" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1209" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1184" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1208" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1183" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1207" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1182" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1206" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1181" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1205" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1180" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1204" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61578,193 +61878,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1179" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1203" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1178" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1202" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1177" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1201" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1176" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1200" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1175" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1199" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1174" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1198" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1173" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1197" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1172" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1196" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1171" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1195" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1170" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1194" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1169" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1168" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1167" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1193" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1192" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1191" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1166" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1190" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1165" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1189" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1164" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1188" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1163" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1187" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1162" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1186" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1161" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1185" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1160" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1159" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1158" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1184" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1183" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1182" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1157" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1181" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1156" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1180" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1155" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1154" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1153" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1179" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1178" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1177" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1152" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1151" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1150" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1176" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1175" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1174" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1149" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1173" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1148" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1172" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1147" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1171" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1146" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1170" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1145" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1169" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1144" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1168" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1143" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1167" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1142" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1166" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1141" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1165" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1140" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1164" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1139" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1163" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1138" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1162" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1137" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1161" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -63282,193 +63582,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1136" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1160" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1135" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1159" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1134" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1158" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1133" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1157" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1132" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1156" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1131" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1155" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1130" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1154" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1129" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1153" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1128" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1152" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1127" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1151" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1126" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1125" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1124" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1150" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1149" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1148" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1123" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1147" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1122" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1146" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1121" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1145" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1120" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1144" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1119" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1143" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1118" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1117" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1116" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1115" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1141" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1140" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1139" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1114" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1138" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1113" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1137" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1112" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1111" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1110" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1136" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1135" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1134" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1109" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1108" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1107" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1133" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1132" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1131" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1106" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1130" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1105" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1104" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1128" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1103" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1127" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1102" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1126" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1101" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1125" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1100" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1124" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1099" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1123" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1098" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1122" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1097" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1121" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1096" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1120" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1095" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1119" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1094" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1118" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64967,193 +65267,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1093" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1117" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1092" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1116" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1091" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1115" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1090" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1089" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1088" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1087" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1111" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1086" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1085" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1109" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1084" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1108" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1083" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1082" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1107" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1106" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1105" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1080" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1079" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1103" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1078" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1102" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1077" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1076" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1100" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1075" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1099" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1074" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1073" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1072" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1098" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1097" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1096" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1071" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1095" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1070" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1094" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1069" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1068" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1067" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1093" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1092" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1091" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1066" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1065" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1064" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1090" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1089" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1088" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1063" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1087" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1062" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1061" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1085" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1060" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1084" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1059" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1083" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1058" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1082" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1057" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1081" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1056" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1080" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1055" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1079" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:S21">
-    <cfRule type="cellIs" dxfId="1054" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1078" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:S23">
-    <cfRule type="cellIs" dxfId="1053" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1077" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:S25">
-    <cfRule type="cellIs" dxfId="1052" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1076" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1051" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1075" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66657,193 +66957,193 @@
     <mergeCell ref="N5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="D29 E4:H6 E28:K29">
-    <cfRule type="cellIs" dxfId="1050" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="43" operator="equal">
       <formula>212030016606640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29 E4:E6 E28:K29">
-    <cfRule type="cellIs" dxfId="1049" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1073" priority="41" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1048" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="1072" priority="42" operator="equal">
       <formula>2120</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29 F4:F6 F28:F29">
-    <cfRule type="cellIs" dxfId="1047" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="1071" priority="39" operator="equal">
       <formula>$F$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1046" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="40" operator="equal">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G28:G29">
-    <cfRule type="cellIs" dxfId="1045" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1069" priority="37" operator="equal">
       <formula>$G$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1044" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="1068" priority="38" operator="equal">
       <formula>1660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H6 H28:H29">
-    <cfRule type="cellIs" dxfId="1043" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1067" priority="35" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1042" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1066" priority="36" operator="equal">
       <formula>6640</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1041" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1065" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1040" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1039" priority="32" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1038" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1064" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1063" priority="32" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1062" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E6 E28:K28">
-    <cfRule type="cellIs" dxfId="1037" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="30" operator="equal">
       <formula>$E$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D29 D6 D4:M4">
-    <cfRule type="cellIs" dxfId="1036" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1060" priority="29" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I6 I28:I29">
-    <cfRule type="cellIs" dxfId="1035" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1059" priority="28" operator="equal">
       <formula>$I$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J6 J28:J29">
-    <cfRule type="cellIs" dxfId="1034" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="27" operator="equal">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K6 K28:K29">
-    <cfRule type="cellIs" dxfId="1033" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1057" priority="26" operator="equal">
       <formula>$K$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="1032" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1056" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1031" priority="22" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1030" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1029" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1055" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1054" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1053" priority="24" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1028" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1052" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T28">
-    <cfRule type="cellIs" dxfId="1027" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1051" priority="20" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T27">
-    <cfRule type="cellIs" dxfId="1026" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1025" priority="18" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1024" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1050" priority="17" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1049" priority="18" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1048" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:T28">
-    <cfRule type="cellIs" dxfId="1023" priority="14" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1022" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1047" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1046" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1045" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:K5">
-    <cfRule type="cellIs" dxfId="1020" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1044" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L28:L29">
-    <cfRule type="cellIs" dxfId="1019" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1043" priority="12" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:S7">
-    <cfRule type="cellIs" dxfId="1018" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1042" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:S9">
-    <cfRule type="cellIs" dxfId="1017" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1041" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:S11">
-    <cfRule type="cellIs" dxfId="1016" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1040" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:S13">
-    <cfRule type="cellIs" dxfId="1015" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1039" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:S15">
-    <cfRule type="cellIs" dxfId="1014" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1038" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:S17">
-    <cfRule type="cellIs" dxfId="1013" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1037" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:S19">
-    <cfRule type="cellIs" dxfId="1012" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1036" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:Q21 S21">
-    <cfRule type="cellIs" dxfId="1011" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1035" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:Q23 S23">
-    <cfRule type="cellIs" dxfId="1010" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1034" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:Q25 S25">
-    <cfRule type="cellIs" dxfId="1009" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1033" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:S27">
-    <cfRule type="cellIs" dxfId="1008" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1032" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
